--- a/data/Lebu.xlsx
+++ b/data/Lebu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO LEBU NORTE</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Parque Eólico Lebu Norte SpA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/12/2018</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142105020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Lebu Norte</t>
+          <t>PARQUE EÓLICO LEBU NORTE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/07/2018</t>
+          <t>21/12/2018</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140977275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142105020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Eólico Lebu Norte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Parque Eólico Lebu Norte SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9903</v>
+        <v>25000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>24/07/2018</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140977275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Duna del Sur</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DUNA DEL SUR SPA</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>16000</v>
+        <v>9903</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132179436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conservación Calado Vía de Navegación Río Lebu</t>
+          <t>Parque Eólico Duna del Sur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>DUNA DEL SUR SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132037151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132179436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Eólico El Arrebol</t>
+          <t>Conservación Calado Vía de Navegación Río Lebu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica El Arrebol SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>11/01/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132037151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación III Parque Eólico Lebu - Cristoro</t>
+          <t>Parque Eólico El Arrebol</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sociedad Parque Eólico Lebu Toro SpA.</t>
+          <t>Empresa Eléctrica El Arrebol SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/10/2014</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Eólico Lebu II Cristoro</t>
+          <t>Ampliación III Parque Eólico Lebu - Cristoro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CRISTALERIAS TORO SPA</t>
+          <t>Sociedad Parque Eólico Lebu Toro SpA.</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/07/2014</t>
+          <t>21/10/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación II Parque Eólico Lebu - Cristoro</t>
+          <t>Parque Eólico Lebu II Cristoro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad Parque Eólico Lebu Toro SpA.</t>
+          <t>CRISTALERIAS TORO SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/10/2013</t>
+          <t>23/07/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128720107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para Pozo Gas Mocha Norte N°3 .</t>
+          <t>Ampliación II Parque Eólico Lebu - Cristoro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lebu</t>
+          <t>Sociedad Parque Eólico Lebu Toro SpA.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>400</v>
+        <v>13000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>24/10/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8224166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128720107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Eólico Lebu Etapa III</t>
+          <t>Construcción Línea de Flujo para Pozo Gas Mocha Norte N°3 .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NSL Eólica Limitada</t>
+          <t>Ilustre Municipalidad de Lebu</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>368000</v>
+        <v>400</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>26/04/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8224166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>26/04/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8026043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Regularización Central Grupos Electrógenos Lebu .</t>
+          <t>Parque Eólico Lebu Etapa III</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>NSL Eólica Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1355</v>
+        <v>368000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/12/2012</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7633776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8026043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Central Grupos Electrógenos Lebu .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SAGESA S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>1355</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>13/12/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7633776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Eólico Raki</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>IEH Chile SpA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24000</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6123492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Raki</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>IEH Chile SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>24000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>18/10/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6123492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Eólico Lebu Tercera Etapa</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inversiones BOSQUEMAR Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>616000</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/06/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5706403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Eólico Lebu Segunda Etapa .</t>
+          <t>Parque Eólico Lebu Tercera Etapa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Lebu Dos S.A.</t>
+          <t>Inversiones BOSQUEMAR Ltda</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>347600</v>
+        <v>616000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>13/06/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5706403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Parque Eólico Lebu Segunda Etapa .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Lebu Dos S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>347600</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Parque Eólico Cristoro, Lebu</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cristalerías Toro S.A.I.C.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5253112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Subestación Eléctrica Parque Eólico Cristoro, Lebu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Cristalerías Toro S.A.I.C.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>377</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>19/01/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5253112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Eólico Lebu Sur (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lebu Sur S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>224000</v>
+        <v>6500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09/03/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3609338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico Lebu Parque Eólico Lebu (e-seia)</t>
+          <t>Parque Eólico Lebu Sur (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Parque Eólico Lebu Toro SpA.</t>
+          <t>Lebu Sur S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6000</v>
+        <v>224000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>09/03/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3609338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación Parque Eólico Lebu Parque Eólico Lebu (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad Parque Eólico Lebu Toro SpA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1650</v>
+        <v>6000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>429</v>
+        <v>1650</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROYECTO DE EXPLORACIÓN DE GAS NATURAL EN PROVINCIA DE ARAUCO, FASE II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Layne Energía Chile S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero de Lebu (e-seia)</t>
+          <t>PROYECTO DE EXPLORACIÓN DE GAS NATURAL EN PROVINCIA DE ARAUCO, FASE II (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lebu</t>
+          <t>Layne Energía Chile S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>120</v>
+        <v>7000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2074129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Plan de Cierre Vertedero de Lebu (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ilustre Municipalidad de Lebu</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2074129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,21 +2171,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Plan Regulador Lebu (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lebu</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/08/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Plan Regulador Lebu (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Ilustre Municipalidad de Lebu</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>02/08/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1579431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plan Regulador Comuna Lebu (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lebu</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Plan Regulador Comuna Lebu (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,12 +2546,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Ilustre Municipalidad de Lebu</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>03/03/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Emisario Submarino de Lebu EmisarioLebu (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>170</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Emisario Submarino de Lebu EmisarioLebu (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro Frionatur Acuicola Lebu (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Leonardo Danilo Aldunce Vega</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Lebu (e-seia)</t>
+          <t>Centro Frionatur Acuicola Lebu (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Leonardo Danilo Aldunce Vega</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/12/2002</t>
+          <t>31/12/2002</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Filetes de Pescado Congelado</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Lebu (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pesquera Río Lebu Ltda.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/07/1999</t>
+          <t>19/12/2002</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fundición Lebu</t>
+          <t>Planta Procesadora de Filetes de Pescado Congelado</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Compañía Minera y Refinadora de Metales Ltda.</t>
+          <t>Pesquera Río Lebu Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>730</v>
+        <v>1020</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/12/1997</t>
+          <t>29/07/1999</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,43 +2920,91 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>Fundición Lebu</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Compañía Minera y Refinadora de Metales Ltda.</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>730</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>18/12/1997</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=199&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Lebu</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Reposición Posta Rural Santa Rosa de Lebu</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Lebu</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F55" t="n">
         <v>50</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>19/08/1997</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1733&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Lebu</t>
         </is>

--- a/data/Lebu.xlsx
+++ b/data/Lebu.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
